--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Desktop\readingspreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Documents\cbt\cbt-new\computer-based-assessment\excel examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,18 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>matric</t>
+    <t>who discovered mongo park?</t>
   </si>
   <si>
-    <t>ca</t>
+    <t>a</t>
   </si>
   <si>
-    <t>exam</t>
+    <t>a: Julius beger;b: Akpan;c: James;d: Titus;</t>
   </si>
   <si>
-    <t>13ms1023</t>
+    <t>natural sciences:mathematical sciences;</t>
   </si>
 </sst>
 </file>
@@ -353,34 +353,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -24,18 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>who discovered mongo park?</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a: Julius beger;b: Akpan;c: James;d: Titus;</t>
-  </si>
-  <si>
-    <t>natural sciences:mathematical sciences;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>13ms1023</t>
+  </si>
+  <si>
+    <t>16me1033</t>
+  </si>
+  <si>
+    <t>Emmanuel Menyaga</t>
+  </si>
+  <si>
+    <t>mathematical sciences</t>
+  </si>
+  <si>
+    <t>Ojonugwa Justice Alikali</t>
   </si>
 </sst>
 </file>
@@ -353,52 +356,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="b">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
+      <c r="D2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -24,21 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>13ms1023</t>
+    <t>who discovered mongo park?</t>
   </si>
   <si>
-    <t>16me1033</t>
+    <t>a</t>
   </si>
   <si>
-    <t>Emmanuel Menyaga</t>
+    <t>a: Julius beger;b: Akpan;c: James;d: Titus;</t>
   </si>
   <si>
-    <t>mathematical sciences</t>
-  </si>
-  <si>
-    <t>Ojonugwa Justice Alikali</t>
+    <t>natural sciences:mathematical sciences;</t>
   </si>
 </sst>
 </file>
@@ -356,40 +353,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="b">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
-        <v>30</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>who discovered mongo park?</t>
   </si>
@@ -35,7 +35,25 @@
     <t>a: Julius beger;b: Akpan;c: James;d: Titus;</t>
   </si>
   <si>
-    <t>natural sciences:mathematical sciences;</t>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Question For</t>
+  </si>
+  <si>
+    <t>natural sciences, education, philosophy</t>
   </si>
 </sst>
 </file>
@@ -356,29 +374,29 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="b">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -398,7 +416,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>who discovered mongo park?</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>natural sciences, education, philosophy</t>
+  </si>
+  <si>
+    <t>James brown</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +422,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Documents\cbt\cbt-new\computer-based-assessment\excel examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alikali Ojonugwa\Documents\React-Projectx\COMPUTER_BASED-ASSESSMENT\cbt\excel examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>who discovered mongo park?</t>
   </si>
@@ -53,18 +53,23 @@
     <t>Question For</t>
   </si>
   <si>
-    <t>natural sciences, education, philosophy</t>
-  </si>
-  <si>
-    <t>James brown</t>
+    <t>natural sciences, education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,31 +380,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -422,27 +435,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alikali Ojonugwa\Documents\React-Projectx\COMPUTER_BASED-ASSESSMENT\cbt\excel examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,47 +19,521 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>who discovered mongo park?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="166">
+  <si>
+    <t>Question Type</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Question For</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+  <si>
+    <t>The followings are among the rules and regulations of libraries except</t>
+  </si>
+  <si>
+    <t>The libaray that is owned by a particular organization is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">________ is a type of library that is being established in the primary and post primary schools </t>
+  </si>
+  <si>
+    <t>________ is a library which can serve as legal deposit</t>
+  </si>
+  <si>
+    <t>Legal deposit refers to law ____________</t>
+  </si>
+  <si>
+    <t>one of the objectives of the school library is</t>
+  </si>
+  <si>
+    <t>________ is an early civilization which contributed to the development of libraries</t>
+  </si>
+  <si>
+    <t>________ is a component of communication except</t>
+  </si>
+  <si>
+    <t>classification schemes assign ___________</t>
+  </si>
+  <si>
+    <t>Routine activities in the technical services department in the library include</t>
+  </si>
+  <si>
+    <t>The followings are found in the access register except</t>
+  </si>
+  <si>
+    <t>_______ is one of the reasons for producing library catalogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the full meaning of IFLA is </t>
+  </si>
+  <si>
+    <t>NALIS is _______</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full meaning of WALA is </t>
+  </si>
+  <si>
+    <t>Examples of Information systems are -----------</t>
+  </si>
+  <si>
+    <t>Examples of modern books include --------------</t>
+  </si>
+  <si>
+    <t>The followings are physical form of catalogue except</t>
+  </si>
+  <si>
+    <t>Serial publications include except</t>
+  </si>
+  <si>
+    <t>What is the advantage of computer to library?</t>
+  </si>
+  <si>
+    <t>These are services provided by the Internet except</t>
+  </si>
+  <si>
+    <t>These are non-library professional software except</t>
+  </si>
+  <si>
+    <t>What is the full meaning of OPAC</t>
+  </si>
+  <si>
+    <t>A collection of web pages by an individual or organization is called ___________</t>
+  </si>
+  <si>
+    <t>What is the programme use to access the World wide web?</t>
+  </si>
+  <si>
+    <t>What is the full meaning of URL</t>
+  </si>
+  <si>
+    <t>The forms of catalogue are --------------, ----------------- and --------------------</t>
+  </si>
+  <si>
+    <t>The department that combines cataloguing, classification and reprographic services is called</t>
+  </si>
+  <si>
+    <t>The following are rules of Library except --------------</t>
+  </si>
+  <si>
+    <t>What is use to describe or estimate the total library holding?</t>
+  </si>
+  <si>
+    <t>The following are department in library except</t>
+  </si>
+  <si>
+    <t>Computers can be divided into ------------, ----------------- and ---------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An example of physical forms of catalogue include </t>
+  </si>
+  <si>
+    <t>How many types of physical forms of catalogue do we have in the library</t>
+  </si>
+  <si>
+    <t>QUESTIONS</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>a: Julius beger;b: Akpan;c: James;d: Titus;</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Question Type</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>Question For</t>
-  </si>
-  <si>
-    <t>natural sciences, education</t>
+    <t>Option A</t>
+  </si>
+  <si>
+    <t>Option B</t>
+  </si>
+  <si>
+    <t>Option C</t>
+  </si>
+  <si>
+    <t>Option d</t>
+  </si>
+  <si>
+    <t>No library seat should be reserved under any circumstances</t>
+  </si>
+  <si>
+    <t>No smoking, eating in the library</t>
+  </si>
+  <si>
+    <t>Entering the Library through the main door</t>
+  </si>
+  <si>
+    <t>Mutilation of library books are allowed</t>
+  </si>
+  <si>
+    <t>title catalogue</t>
+  </si>
+  <si>
+    <t>author catalogue</t>
+  </si>
+  <si>
+    <t>card catalogue</t>
+  </si>
+  <si>
+    <t>series catalogue</t>
+  </si>
+  <si>
+    <t>micro, mini and power computer</t>
+  </si>
+  <si>
+    <t>mainframe, mini and micro computer</t>
+  </si>
+  <si>
+    <t>manniframe, mini and microform</t>
+  </si>
+  <si>
+    <t>mainframe, micro and biological computer</t>
+  </si>
+  <si>
+    <t>operating department</t>
+  </si>
+  <si>
+    <t>technical department</t>
+  </si>
+  <si>
+    <t>serial department</t>
+  </si>
+  <si>
+    <t>reference department</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>catalogue</t>
+  </si>
+  <si>
+    <t>serial unit</t>
+  </si>
+  <si>
+    <t>technical service</t>
+  </si>
+  <si>
+    <t>circulation unit</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>smoking, eating and drinking are prohibited</t>
+  </si>
+  <si>
+    <t>readers are expected to behave well in the library</t>
+  </si>
+  <si>
+    <t>binding services</t>
+  </si>
+  <si>
+    <t>book, sheef and card</t>
+  </si>
+  <si>
+    <t>card, book and box</t>
+  </si>
+  <si>
+    <t>pin, box and card</t>
+  </si>
+  <si>
+    <t>card, box and shelf</t>
+  </si>
+  <si>
+    <t>uniform resource locator</t>
+  </si>
+  <si>
+    <t>uniform reinforce locator</t>
+  </si>
+  <si>
+    <t>uniform resourceful lan</t>
+  </si>
+  <si>
+    <t>Web Address</t>
+  </si>
+  <si>
+    <t>Web server</t>
+  </si>
+  <si>
+    <t>Web browser</t>
+  </si>
+  <si>
+    <t>Web site</t>
+  </si>
+  <si>
+    <t>collection development</t>
+  </si>
+  <si>
+    <t>World wide web</t>
+  </si>
+  <si>
+    <t>online pass access classification</t>
+  </si>
+  <si>
+    <t>online peracy of act collaboration</t>
+  </si>
+  <si>
+    <t>online people access catalogue</t>
+  </si>
+  <si>
+    <t>Online public access catalogue</t>
+  </si>
+  <si>
+    <t>OPAC</t>
+  </si>
+  <si>
+    <t>Avast</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>MS-DOS</t>
+  </si>
+  <si>
+    <t>internet phone</t>
+  </si>
+  <si>
+    <t>funds transfer</t>
+  </si>
+  <si>
+    <t>fire force service</t>
+  </si>
+  <si>
+    <t>Internet banking</t>
+  </si>
+  <si>
+    <t>electricity bias</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>speed and accuracy</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>periodicals</t>
+  </si>
+  <si>
+    <t>atlasses</t>
+  </si>
+  <si>
+    <t>newspapper</t>
+  </si>
+  <si>
+    <t>shelf form</t>
+  </si>
+  <si>
+    <t>book form</t>
+  </si>
+  <si>
+    <t>sharia form</t>
+  </si>
+  <si>
+    <t>card form</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+  </si>
+  <si>
+    <t>claytablets</t>
+  </si>
+  <si>
+    <t>papyrus</t>
+  </si>
+  <si>
+    <t>transaction information</t>
+  </si>
+  <si>
+    <t>management information system</t>
+  </si>
+  <si>
+    <t>technological information system</t>
+  </si>
+  <si>
+    <t>West Association of African library</t>
+  </si>
+  <si>
+    <t>West Afreca library Assort</t>
+  </si>
+  <si>
+    <t>West Art Limited Association</t>
+  </si>
+  <si>
+    <t>West African Library Association</t>
+  </si>
+  <si>
+    <t>all of the above</t>
+  </si>
+  <si>
+    <t>national association of loan and information</t>
+  </si>
+  <si>
+    <t>National airway of library assocaition</t>
+  </si>
+  <si>
+    <t>national association of library and information science</t>
+  </si>
+  <si>
+    <t>international field of library association</t>
+  </si>
+  <si>
+    <t>international federation of library associations</t>
+  </si>
+  <si>
+    <t>item float lane apart</t>
+  </si>
+  <si>
+    <t>medival period</t>
+  </si>
+  <si>
+    <t>bibliography citation</t>
+  </si>
+  <si>
+    <t>it gives easy access to information</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the title </t>
+  </si>
+  <si>
+    <t>author's name</t>
+  </si>
+  <si>
+    <t>information sharing</t>
+  </si>
+  <si>
+    <t>information representation</t>
+  </si>
+  <si>
+    <t>author and title</t>
+  </si>
+  <si>
+    <t>cataloguing and classification</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>symbols</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>invention of printing machine</t>
+  </si>
+  <si>
+    <t>archeological discovery</t>
+  </si>
+  <si>
+    <t>development of writin</t>
+  </si>
+  <si>
+    <t>for information representation</t>
+  </si>
+  <si>
+    <t>not to be nutured</t>
+  </si>
+  <si>
+    <t>To scare away</t>
+  </si>
+  <si>
+    <t>where authors are requested to deposit 3 copies of their publications</t>
+  </si>
+  <si>
+    <t>where to withdraw money</t>
+  </si>
+  <si>
+    <t>where to deposit money</t>
+  </si>
+  <si>
+    <t>special library</t>
+  </si>
+  <si>
+    <t>school library</t>
+  </si>
+  <si>
+    <t>National library</t>
+  </si>
+  <si>
+    <t>Public library</t>
+  </si>
+  <si>
+    <t>Academic library</t>
+  </si>
+  <si>
+    <t>School libraries</t>
+  </si>
+  <si>
+    <t>Private libraries</t>
+  </si>
+  <si>
+    <t>School library</t>
+  </si>
+  <si>
+    <t>Special library</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,9 +571,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,63 +855,962 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="125.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+      <c r="H36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -19,18 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="538">
   <si>
     <t>Question Type</t>
   </si>
@@ -38,9 +32,6 @@
     <t>Marks</t>
   </si>
   <si>
-    <t>Question For</t>
-  </si>
-  <si>
     <t>Correct Answer</t>
   </si>
   <si>
@@ -149,18 +140,6 @@
     <t>QUESTIONS</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Option A</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>manniframe, mini and microform</t>
   </si>
   <si>
-    <t>mainframe, micro and biological computer</t>
-  </si>
-  <si>
     <t>operating department</t>
   </si>
   <si>
@@ -272,9 +248,6 @@
     <t>uniform reinforce locator</t>
   </si>
   <si>
-    <t>uniform resourceful lan</t>
-  </si>
-  <si>
     <t>Web Address</t>
   </si>
   <si>
@@ -287,24 +260,12 @@
     <t>Web site</t>
   </si>
   <si>
-    <t>collection development</t>
-  </si>
-  <si>
     <t>World wide web</t>
   </si>
   <si>
-    <t>online pass access classification</t>
-  </si>
-  <si>
-    <t>online peracy of act collaboration</t>
-  </si>
-  <si>
     <t>online people access catalogue</t>
   </si>
   <si>
-    <t>Online public access catalogue</t>
-  </si>
-  <si>
     <t>OPAC</t>
   </si>
   <si>
@@ -326,9 +287,6 @@
     <t>fire force service</t>
   </si>
   <si>
-    <t>Internet banking</t>
-  </si>
-  <si>
     <t>electricity bias</t>
   </si>
   <si>
@@ -338,9 +296,6 @@
     <t>speed and accuracy</t>
   </si>
   <si>
-    <t>slow</t>
-  </si>
-  <si>
     <t>magazine</t>
   </si>
   <si>
@@ -350,9 +305,6 @@
     <t>atlasses</t>
   </si>
   <si>
-    <t>newspapper</t>
-  </si>
-  <si>
     <t>shelf form</t>
   </si>
   <si>
@@ -386,12 +338,6 @@
     <t>technological information system</t>
   </si>
   <si>
-    <t>West Association of African library</t>
-  </si>
-  <si>
-    <t>West Afreca library Assort</t>
-  </si>
-  <si>
     <t>West Art Limited Association</t>
   </si>
   <si>
@@ -404,9 +350,6 @@
     <t>national association of loan and information</t>
   </si>
   <si>
-    <t>National airway of library assocaition</t>
-  </si>
-  <si>
     <t>national association of library and information science</t>
   </si>
   <si>
@@ -425,18 +368,12 @@
     <t>bibliography citation</t>
   </si>
   <si>
-    <t>it gives easy access to information</t>
-  </si>
-  <si>
     <t>management</t>
   </si>
   <si>
     <t>publisher</t>
   </si>
   <si>
-    <t xml:space="preserve">the title </t>
-  </si>
-  <si>
     <t>author's name</t>
   </si>
   <si>
@@ -467,9 +404,6 @@
     <t>symbols</t>
   </si>
   <si>
-    <t>receiver</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
@@ -482,21 +416,12 @@
     <t>archeological discovery</t>
   </si>
   <si>
-    <t>development of writin</t>
-  </si>
-  <si>
     <t>for information representation</t>
   </si>
   <si>
     <t>not to be nutured</t>
   </si>
   <si>
-    <t>To scare away</t>
-  </si>
-  <si>
-    <t>where authors are requested to deposit 3 copies of their publications</t>
-  </si>
-  <si>
     <t>where to withdraw money</t>
   </si>
   <si>
@@ -521,13 +446,1198 @@
     <t>School libraries</t>
   </si>
   <si>
-    <t>Private libraries</t>
-  </si>
-  <si>
     <t>School library</t>
   </si>
   <si>
     <t>Special library</t>
+  </si>
+  <si>
+    <t>________ is a library that is being reffered to as public university</t>
+  </si>
+  <si>
+    <t>Types of catalogue are classified into how many?</t>
+  </si>
+  <si>
+    <t>Series catalogue are classified into how many?</t>
+  </si>
+  <si>
+    <t>Series catalogue is an example of added entries</t>
+  </si>
+  <si>
+    <t>An author catalogue is an added entry catalogue</t>
+  </si>
+  <si>
+    <t>Title catalogue is an added entry catalogue</t>
+  </si>
+  <si>
+    <t>subject catalogue is a main entry catalogue</t>
+  </si>
+  <si>
+    <t>serial department is a section in the library that periodicals are kept</t>
+  </si>
+  <si>
+    <t>title and statement of responsibility is proceeded by ISBN are</t>
+  </si>
+  <si>
+    <t>types of materials in the component part of the cataloguing is proceeded by --------</t>
+  </si>
+  <si>
+    <t>Edition area is proceeded by ----------</t>
+  </si>
+  <si>
+    <t>Collation area is otherwise known as --------------</t>
+  </si>
+  <si>
+    <t>Added entry is otherwise known as ---------------</t>
+  </si>
+  <si>
+    <t>Circulation in library department is in charge with ------------</t>
+  </si>
+  <si>
+    <t>What is the application that runs on internet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the language used by WWW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of connected computers is known as </t>
+  </si>
+  <si>
+    <t>You can browse through the Sita Via</t>
+  </si>
+  <si>
+    <t>e-mail application transmit data ever the internet using --------------</t>
+  </si>
+  <si>
+    <t>To be able to connect to internet you need one of the followings</t>
+  </si>
+  <si>
+    <t>one of these services running on the internet is known as -----------</t>
+  </si>
+  <si>
+    <t>the world wide web is governed by ---------</t>
+  </si>
+  <si>
+    <t>WWW uses ------------------ to transfer files</t>
+  </si>
+  <si>
+    <t>What support hypertext to access several internet protocol</t>
+  </si>
+  <si>
+    <t>What types of computer was established in 1967?</t>
+  </si>
+  <si>
+    <t>SDS-92 is a good  example of ------------</t>
+  </si>
+  <si>
+    <t>"Cray Linux" is a good example of --------------</t>
+  </si>
+  <si>
+    <t>Which type of computer is used in performing ATM cash withdrawal/deposit</t>
+  </si>
+  <si>
+    <t>computer network can be broken down into ----------------</t>
+  </si>
+  <si>
+    <t>Interconnection of computers for communication is ----------</t>
+  </si>
+  <si>
+    <t>knowledge communicated is referred to as ----------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the first computer was invented in </t>
+  </si>
+  <si>
+    <t>Which of these computers is used by metrologist to simulate weather behaviour?</t>
+  </si>
+  <si>
+    <t>cloud storage is a function of microcomputer</t>
+  </si>
+  <si>
+    <t>K-202 and SOS-92 are good examples of microcomputer</t>
+  </si>
+  <si>
+    <t>Shelf catalogue is not a physical form of catalogue</t>
+  </si>
+  <si>
+    <t>Bookbind catalogue is known to bo one of the physical form of catalogue</t>
+  </si>
+  <si>
+    <t>Author's catalogue is a main catalogue</t>
+  </si>
+  <si>
+    <t>Series catalogue is one of the added entry catalogue</t>
+  </si>
+  <si>
+    <t>What classification was developed in 1876?</t>
+  </si>
+  <si>
+    <t>Who developed classification in 1876?</t>
+  </si>
+  <si>
+    <t>Which of the scheme assigned arabic numerals to library materials</t>
+  </si>
+  <si>
+    <t>Which of these classification schemes was developed in 1895?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume one in DDC Scheme represent </t>
+  </si>
+  <si>
+    <t>Volume two in DDC scheme stand for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What volume represent "table" in DDC scheme </t>
+  </si>
+  <si>
+    <t>What volume represent schedule 600--999</t>
+  </si>
+  <si>
+    <t>Volume 3 of DDC represent --------------</t>
+  </si>
+  <si>
+    <t>CNK 09 is a good example of ---------------</t>
+  </si>
+  <si>
+    <t>Texas instrument T1--990 is a good example of ----------</t>
+  </si>
+  <si>
+    <t>Which of the following libraries provide ISBN to books</t>
+  </si>
+  <si>
+    <t>Which of these libraries is used in the universities?</t>
+  </si>
+  <si>
+    <t>"N" stands for -------------------- in LC scheme</t>
+  </si>
+  <si>
+    <t>Logic in LC stands for ------------</t>
+  </si>
+  <si>
+    <t>Sciences in LC is represented by ---------------</t>
+  </si>
+  <si>
+    <t>Military Science is ---------------- in LC</t>
+  </si>
+  <si>
+    <t>800 in DDC represent -------------------</t>
+  </si>
+  <si>
+    <t>Social sciences is represented by ------------------- in DDC</t>
+  </si>
+  <si>
+    <t>There are ________ basic components that are essential to all libraries</t>
+  </si>
+  <si>
+    <t>People who make use of materials in the library are called</t>
+  </si>
+  <si>
+    <t>Library personnel is divided into how many broad categories</t>
+  </si>
+  <si>
+    <t>The building or rooms where books, serials and non-books are kept for consultation is known as</t>
+  </si>
+  <si>
+    <t>Books journals, magazines, newspapers, printed and non-printed materials are called what in library</t>
+  </si>
+  <si>
+    <t>A place where books and non-books materials are kept for the purpose of reading and consultation is</t>
+  </si>
+  <si>
+    <t>A building or room where collection of books are kept for use is called</t>
+  </si>
+  <si>
+    <t>The purpose of any library can be classified into</t>
+  </si>
+  <si>
+    <t>The need to keep accurate records and materials for consultation and prosperity give rise to what</t>
+  </si>
+  <si>
+    <t>Readers are expected to enter the library through the main ------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Library the following are prohibited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All reading furnitures in the library must not be moved from their positions by any </t>
+  </si>
+  <si>
+    <t>there are different types of libraries according to their collections and ---------------</t>
+  </si>
+  <si>
+    <t>the types of libraries established, funded and owned by individuals and families are known as?</t>
+  </si>
+  <si>
+    <t>libray established in primary and secondary schools are called ---------------------</t>
+  </si>
+  <si>
+    <t>there are -------------- major objectives of school library</t>
+  </si>
+  <si>
+    <t>public libraries provide information resources for all</t>
+  </si>
+  <si>
+    <t>library established by the Federal Government and usually located at the nation's capital is ------------</t>
+  </si>
+  <si>
+    <t>Assigning ISBN and ISSN are mainly functions of which library?</t>
+  </si>
+  <si>
+    <t>special library is also called?</t>
+  </si>
+  <si>
+    <t>Academic library is found in tertiary institutions such as</t>
+  </si>
+  <si>
+    <t>The main objectives of Academic libraries are to provide necessary information to</t>
+  </si>
+  <si>
+    <t>there are ----------- main purpose of establishing academic libraries</t>
+  </si>
+  <si>
+    <t>Departments in Academic libraries can be categorised into ---------------</t>
+  </si>
+  <si>
+    <t>A process of adding information resources, be it print or non print, to the library collection is called?</t>
+  </si>
+  <si>
+    <t>To enhance access to library collection is one of the functions of --------------</t>
+  </si>
+  <si>
+    <t>Books are located on the shelves through the ---------------------</t>
+  </si>
+  <si>
+    <t>Library catalogue is the key to all the holdings in the ---------------</t>
+  </si>
+  <si>
+    <t>A device for retrieval of information is also called ----------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are --------------- physical forms catalogue </t>
+  </si>
+  <si>
+    <t>In academic library, the unit which is responsible for stamping and accessioning of books is called</t>
+  </si>
+  <si>
+    <t>one of the following information resources is not non-books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection development unit of the library is where </t>
+  </si>
+  <si>
+    <t>Every University library is established to assist the university to meet its academic</t>
+  </si>
+  <si>
+    <t>In academic library the section that is responsible for acquiring materials is called?</t>
+  </si>
+  <si>
+    <t>When the library materials get to the library, after stamping and accessioning is done they are sent to</t>
+  </si>
+  <si>
+    <t>Why is it important to stamp library materials found in collection development</t>
+  </si>
+  <si>
+    <t>Selection of library materials involve</t>
+  </si>
+  <si>
+    <t>Academic library provide the following services except:</t>
+  </si>
+  <si>
+    <t>cataloguing and classification services are carried out in?</t>
+  </si>
+  <si>
+    <t>In academic library the section that is responsible for charging and discharging is known as</t>
+  </si>
+  <si>
+    <t>Which of the following unit does the registration of eligible library users and lending priviledges?</t>
+  </si>
+  <si>
+    <t>In academic library the unit that does the clearance for users is called</t>
+  </si>
+  <si>
+    <t>In academic library the section that is equiped with dictionaries, encyclopedia, and directories is called?</t>
+  </si>
+  <si>
+    <t>In academic library whuch unit maintains the following materials journals, newspaper and magazines?</t>
+  </si>
+  <si>
+    <t>In University library the section where final year and PG students project are kept for consultation is?</t>
+  </si>
+  <si>
+    <t>A place where library materials are repaired, rebuilt, to make them strong again is called?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The use of borrower's card is to enable library users to </t>
+  </si>
+  <si>
+    <t>Spinner is used for tighting loose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following are the laws libraries except one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good library is the one that has </t>
+  </si>
+  <si>
+    <t>The library that does not restrict its services to any group of person is called?</t>
+  </si>
+  <si>
+    <t>The library that is backed up by the National legal deposit law is called?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The library that are regarded as Apex libraries are </t>
+  </si>
+  <si>
+    <t>Students requirement for Library registration are following except</t>
+  </si>
+  <si>
+    <t>The National Library of Nigeria is a library owned by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quickest way that information are disseminated now is through </t>
+  </si>
+  <si>
+    <t>The head of the University library is called</t>
+  </si>
+  <si>
+    <t>Library of Congress Classification Scheme is also known as</t>
+  </si>
+  <si>
+    <t>The main classes of the library of congress are denoted by -----------?</t>
+  </si>
+  <si>
+    <t>The Library of Congress notation use both alphabets and --------------?</t>
+  </si>
+  <si>
+    <t>The Library of Congress was founded in which year?</t>
+  </si>
+  <si>
+    <t>Philosophy and Religion is identified by which letter while using the LC?</t>
+  </si>
+  <si>
+    <t>DDC was published by who?</t>
+  </si>
+  <si>
+    <t>DDC was divided into --------- broad classes and assigned numbers to all knowledge</t>
+  </si>
+  <si>
+    <t>In DDC, religion is assigned which number?</t>
+  </si>
+  <si>
+    <t>700 is the number assigned to what in DDC?</t>
+  </si>
+  <si>
+    <t>DDC is used commonly in public and which other library?</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Pivate libraries</t>
+  </si>
+  <si>
+    <t>where authors are requsted to deposit 3 copies of their publications</t>
+  </si>
+  <si>
+    <t>To scared away</t>
+  </si>
+  <si>
+    <t>development of writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> receiver</t>
+  </si>
+  <si>
+    <t>the title</t>
+  </si>
+  <si>
+    <t>it gives easy access to information resources</t>
+  </si>
+  <si>
+    <t>National airway of library association</t>
+  </si>
+  <si>
+    <t>West Africa Library Assort</t>
+  </si>
+  <si>
+    <t>West Association of African Library</t>
+  </si>
+  <si>
+    <t>newspapers</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>internet banking</t>
+  </si>
+  <si>
+    <t>online public access catalogue</t>
+  </si>
+  <si>
+    <t>online piracy of act collaboration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online pass access classification </t>
+  </si>
+  <si>
+    <t>Collection development</t>
+  </si>
+  <si>
+    <t>uniform resourcesful lan</t>
+  </si>
+  <si>
+    <t>No library seat</t>
+  </si>
+  <si>
+    <t>mainframe mini and biological computer</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Collation</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>types of materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">series </t>
+  </si>
+  <si>
+    <t>added entry</t>
+  </si>
+  <si>
+    <t>tracing</t>
+  </si>
+  <si>
+    <t>physical distruption area</t>
+  </si>
+  <si>
+    <t>collation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charging and discharging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cataloguing </t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>acquisition</t>
+  </si>
+  <si>
+    <t>HIIP</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Hyper links</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>Webpages</t>
+  </si>
+  <si>
+    <t>mainframe</t>
+  </si>
+  <si>
+    <t>minicomputer</t>
+  </si>
+  <si>
+    <t>supercomputer</t>
+  </si>
+  <si>
+    <t>microcomputer</t>
+  </si>
+  <si>
+    <t>topologies</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>star topologies</t>
+  </si>
+  <si>
+    <t>bus topology</t>
+  </si>
+  <si>
+    <t>networking</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable </t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>mainframe computer</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>UDC</t>
+  </si>
+  <si>
+    <t>DDC</t>
+  </si>
+  <si>
+    <t>Dewey</t>
+  </si>
+  <si>
+    <t>Herbert Putnam</t>
+  </si>
+  <si>
+    <t>Paul Otlet</t>
+  </si>
+  <si>
+    <t>Henry J</t>
+  </si>
+  <si>
+    <t>Moys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule 000--599 </t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>schedule 999</t>
+  </si>
+  <si>
+    <t>schedule 000 --999</t>
+  </si>
+  <si>
+    <t>volume 2</t>
+  </si>
+  <si>
+    <t>volume 1</t>
+  </si>
+  <si>
+    <t>volume 3</t>
+  </si>
+  <si>
+    <t>volume 4</t>
+  </si>
+  <si>
+    <t>schedule 600--999</t>
+  </si>
+  <si>
+    <t>schedule 000--599</t>
+  </si>
+  <si>
+    <t>academic library</t>
+  </si>
+  <si>
+    <t>private library</t>
+  </si>
+  <si>
+    <t>public library</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>laws</t>
+  </si>
+  <si>
+    <t>arts</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T </t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>sciences</t>
+  </si>
+  <si>
+    <t>literature</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>publishers</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>scholars</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>information resources</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>charts</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>mosque</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schools </t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Shops</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eating </t>
+  </si>
+  <si>
+    <t>Drinking</t>
+  </si>
+  <si>
+    <t>lecturer</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>requests</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>users' needs</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>youths</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>national library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade library </t>
+  </si>
+  <si>
+    <t>research library</t>
+  </si>
+  <si>
+    <t>universities</t>
+  </si>
+  <si>
+    <t>polytechnics</t>
+  </si>
+  <si>
+    <t>colleges of education</t>
+  </si>
+  <si>
+    <t>lecturers</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>researchers</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>cataloguing</t>
+  </si>
+  <si>
+    <t>circulation</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>call mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">library </t>
+  </si>
+  <si>
+    <t>room`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school </t>
+  </si>
+  <si>
+    <t>library catalogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf  </t>
+  </si>
+  <si>
+    <t>cataloguing unit</t>
+  </si>
+  <si>
+    <t>reference unit</t>
+  </si>
+  <si>
+    <t>acquisition unit</t>
+  </si>
+  <si>
+    <t>reserve unit</t>
+  </si>
+  <si>
+    <t>cassettees</t>
+  </si>
+  <si>
+    <t>microfish</t>
+  </si>
+  <si>
+    <t>textbooks</t>
+  </si>
+  <si>
+    <t>microdisk</t>
+  </si>
+  <si>
+    <t>Library materials are classified and catalogue</t>
+  </si>
+  <si>
+    <t>responsible for acquisition of library materials</t>
+  </si>
+  <si>
+    <t>book are stored for reference making</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>reference section</t>
+  </si>
+  <si>
+    <t>acquisition section</t>
+  </si>
+  <si>
+    <t>cataloguing section</t>
+  </si>
+  <si>
+    <t>reserve section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cataloguing and classification section </t>
+  </si>
+  <si>
+    <t>document section</t>
+  </si>
+  <si>
+    <t>To ensure the security of the materials</t>
+  </si>
+  <si>
+    <t>To beautify the library</t>
+  </si>
+  <si>
+    <t>To ensure the library staff are working</t>
+  </si>
+  <si>
+    <t>Deciding which materials are to be acquired for the library</t>
+  </si>
+  <si>
+    <t>Deciding which staff and student to be involved</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>providing of materials for teaching</t>
+  </si>
+  <si>
+    <t>research and study</t>
+  </si>
+  <si>
+    <t>does not restrict it services to users</t>
+  </si>
+  <si>
+    <t>technical unit</t>
+  </si>
+  <si>
+    <t>document unit</t>
+  </si>
+  <si>
+    <t>collection development unit</t>
+  </si>
+  <si>
+    <t>serial section</t>
+  </si>
+  <si>
+    <t>Bindery section</t>
+  </si>
+  <si>
+    <t>enter the library regularly</t>
+  </si>
+  <si>
+    <t>to enable the users to borrow books from library</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>nuts</t>
+  </si>
+  <si>
+    <t>none of the above</t>
+  </si>
+  <si>
+    <t>court libraries</t>
+  </si>
+  <si>
+    <t>ministry of justice</t>
+  </si>
+  <si>
+    <t>legal libraries</t>
+  </si>
+  <si>
+    <t>colleges of Education libraries</t>
+  </si>
+  <si>
+    <t>combination of print and non-print materials</t>
+  </si>
+  <si>
+    <t>does not have combination of print and non-print</t>
+  </si>
+  <si>
+    <t>national libraries</t>
+  </si>
+  <si>
+    <t>Special libraries</t>
+  </si>
+  <si>
+    <t>Academic libraries</t>
+  </si>
+  <si>
+    <t>private libraries</t>
+  </si>
+  <si>
+    <t>admission letter</t>
+  </si>
+  <si>
+    <t>passport photograph</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>the community</t>
+  </si>
+  <si>
+    <t>state government</t>
+  </si>
+  <si>
+    <t>Federal government</t>
+  </si>
+  <si>
+    <t>book trade</t>
+  </si>
+  <si>
+    <t>internet services</t>
+  </si>
+  <si>
+    <t>Chief Librarian</t>
+  </si>
+  <si>
+    <t>Dean of the University</t>
+  </si>
+  <si>
+    <t>University Librarian</t>
+  </si>
+  <si>
+    <t>LRN</t>
+  </si>
+  <si>
+    <t>LCR</t>
+  </si>
+  <si>
+    <t>LDC</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>letters</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>volumes</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>figures</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>Melvin Dewey</t>
+  </si>
+  <si>
+    <t>Dawary</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion </t>
+  </si>
+  <si>
+    <t>Social sciences</t>
+  </si>
+  <si>
+    <t>QuestionFor</t>
   </si>
 </sst>
 </file>
@@ -571,10 +1681,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,19 +1964,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="125.42578125" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -875,28 +1988,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,25 +2017,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -930,25 +2043,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>164</v>
-      </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -956,25 +2069,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>164</v>
-      </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -982,25 +2095,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,25 +2121,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>140</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1034,25 +2147,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>156</v>
-      </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>273</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1060,25 +2173,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>153</v>
-      </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>130</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,25 +2199,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,25 +2225,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>147</v>
-      </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>276</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1138,25 +2251,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>143</v>
-      </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1164,25 +2277,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1190,25 +2303,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1216,25 +2329,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>131</v>
-      </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1242,25 +2355,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>128</v>
-      </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1268,546 +2381,3727 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>286</v>
+      </c>
+      <c r="I25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>289</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="b">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="b">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="b">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="b">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" t="s">
+        <v>296</v>
+      </c>
+      <c r="I45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46" t="s">
+        <v>298</v>
+      </c>
+      <c r="I46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>295</v>
+      </c>
+      <c r="G47" t="s">
+        <v>300</v>
+      </c>
+      <c r="H47" t="s">
+        <v>301</v>
+      </c>
+      <c r="I47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" t="s">
+        <v>297</v>
+      </c>
+      <c r="H48" t="s">
+        <v>303</v>
+      </c>
+      <c r="I48" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" t="s">
+        <v>305</v>
+      </c>
+      <c r="H49" t="s">
+        <v>306</v>
+      </c>
+      <c r="I49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="b">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" t="s">
+        <v>309</v>
+      </c>
+      <c r="H50" t="s">
+        <v>310</v>
+      </c>
+      <c r="I50" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="b">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>312</v>
+      </c>
+      <c r="G51" t="s">
+        <v>309</v>
+      </c>
+      <c r="H51" t="s">
+        <v>313</v>
+      </c>
+      <c r="I51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>315</v>
+      </c>
+      <c r="G52" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>318</v>
+      </c>
+      <c r="G53" t="s">
+        <v>312</v>
+      </c>
+      <c r="H53" t="s">
+        <v>319</v>
+      </c>
+      <c r="I53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" t="s">
+        <v>321</v>
+      </c>
+      <c r="H54" t="s">
+        <v>318</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" t="s">
+        <v>318</v>
+      </c>
+      <c r="H55" t="s">
+        <v>313</v>
+      </c>
+      <c r="I55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="b">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>312</v>
+      </c>
+      <c r="G56" t="s">
+        <v>309</v>
+      </c>
+      <c r="H56" t="s">
+        <v>318</v>
+      </c>
+      <c r="I56" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="b">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>318</v>
+      </c>
+      <c r="G57" t="s">
+        <v>312</v>
+      </c>
+      <c r="H57" t="s">
+        <v>313</v>
+      </c>
+      <c r="I57" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="b">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>312</v>
+      </c>
+      <c r="G58" t="s">
+        <v>324</v>
+      </c>
+      <c r="H58" t="s">
+        <v>318</v>
+      </c>
+      <c r="I58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="b">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" t="s">
+        <v>312</v>
+      </c>
+      <c r="H59" t="s">
+        <v>318</v>
+      </c>
+      <c r="I59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="b">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" t="s">
+        <v>326</v>
+      </c>
+      <c r="H60" t="s">
+        <v>327</v>
+      </c>
+      <c r="I60" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="b">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>325</v>
+      </c>
+      <c r="G61" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" t="s">
+        <v>327</v>
+      </c>
+      <c r="I61" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>325</v>
+      </c>
+      <c r="G62" t="s">
+        <v>326</v>
+      </c>
+      <c r="H62" t="s">
+        <v>327</v>
+      </c>
+      <c r="I62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>325</v>
+      </c>
+      <c r="G63" t="s">
+        <v>326</v>
+      </c>
+      <c r="H63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>329</v>
+      </c>
+      <c r="G64" t="s">
+        <v>330</v>
+      </c>
+      <c r="H64" t="s">
+        <v>331</v>
+      </c>
+      <c r="I64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="b">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>333</v>
+      </c>
+      <c r="G65" t="s">
+        <v>334</v>
+      </c>
+      <c r="H65" t="s">
+        <v>335</v>
+      </c>
+      <c r="I65" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="b">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>337</v>
+      </c>
+      <c r="G66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" t="s">
+        <v>334</v>
+      </c>
+      <c r="I66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>1960</v>
+      </c>
+      <c r="G67">
+        <v>1967</v>
+      </c>
+      <c r="H67">
+        <v>1968</v>
+      </c>
+      <c r="I67">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>327</v>
+      </c>
+      <c r="G68" t="s">
+        <v>338</v>
+      </c>
+      <c r="H68" t="s">
+        <v>326</v>
+      </c>
+      <c r="I68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="b">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="b">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>339</v>
+      </c>
+      <c r="G70" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="b">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>339</v>
+      </c>
+      <c r="G72" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="b">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>293</v>
+      </c>
+      <c r="G73" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="b">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>293</v>
+      </c>
+      <c r="G74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>341</v>
+      </c>
+      <c r="G75" t="s">
+        <v>342</v>
+      </c>
+      <c r="H75" t="s">
+        <v>343</v>
+      </c>
+      <c r="I75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="b">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" t="s">
+        <v>346</v>
+      </c>
+      <c r="H76" t="s">
+        <v>347</v>
+      </c>
+      <c r="I76" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="b">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>344</v>
+      </c>
+      <c r="G77" t="s">
+        <v>342</v>
+      </c>
+      <c r="H77" t="s">
+        <v>341</v>
+      </c>
+      <c r="I77" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="b">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" t="s">
+        <v>343</v>
+      </c>
+      <c r="H78" t="s">
+        <v>344</v>
+      </c>
+      <c r="I78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>350</v>
+      </c>
+      <c r="G79" t="s">
+        <v>351</v>
+      </c>
+      <c r="H79" t="s">
+        <v>352</v>
+      </c>
+      <c r="I79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="b">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>353</v>
+      </c>
+      <c r="G80" t="s">
+        <v>351</v>
+      </c>
+      <c r="H80" t="s">
+        <v>352</v>
+      </c>
+      <c r="I80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="b">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>355</v>
+      </c>
+      <c r="G81" t="s">
+        <v>356</v>
+      </c>
+      <c r="H81" t="s">
+        <v>357</v>
+      </c>
+      <c r="I81" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="b">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>356</v>
+      </c>
+      <c r="G82" t="s">
+        <v>355</v>
+      </c>
+      <c r="H82" t="s">
+        <v>357</v>
+      </c>
+      <c r="I82" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="b">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>359</v>
+      </c>
+      <c r="G83" t="s">
+        <v>352</v>
+      </c>
+      <c r="H83" t="s">
+        <v>351</v>
+      </c>
+      <c r="I83" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="b">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>327</v>
+      </c>
+      <c r="G84" t="s">
+        <v>338</v>
+      </c>
+      <c r="H84" t="s">
+        <v>326</v>
+      </c>
+      <c r="I84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="b">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>327</v>
+      </c>
+      <c r="G85" t="s">
+        <v>338</v>
+      </c>
+      <c r="H85" t="s">
+        <v>326</v>
+      </c>
+      <c r="I85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="b">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>361</v>
+      </c>
+      <c r="G86" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" t="s">
+        <v>362</v>
+      </c>
+      <c r="I86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>361</v>
+      </c>
+      <c r="G87" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" t="s">
+        <v>362</v>
+      </c>
+      <c r="I87" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>364</v>
+      </c>
+      <c r="G88" t="s">
+        <v>365</v>
+      </c>
+      <c r="H88" t="s">
+        <v>366</v>
+      </c>
+      <c r="I88" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="b">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>368</v>
+      </c>
+      <c r="G89" t="s">
+        <v>369</v>
+      </c>
+      <c r="H89" t="s">
+        <v>370</v>
+      </c>
+      <c r="I89" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="b">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>372</v>
+      </c>
+      <c r="G90" t="s">
+        <v>373</v>
+      </c>
+      <c r="H90" t="s">
+        <v>374</v>
+      </c>
+      <c r="I90" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>376</v>
+      </c>
+      <c r="G91" t="s">
+        <v>377</v>
+      </c>
+      <c r="H91" t="s">
+        <v>378</v>
+      </c>
+      <c r="I91" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="b">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>380</v>
+      </c>
+      <c r="G92" t="s">
+        <v>381</v>
+      </c>
+      <c r="H92" t="s">
+        <v>382</v>
+      </c>
+      <c r="I92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>400</v>
+      </c>
+      <c r="G93">
+        <v>300</v>
+      </c>
+      <c r="H93">
+        <v>200</v>
+      </c>
+      <c r="I93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>384</v>
+      </c>
+      <c r="G95" t="s">
+        <v>385</v>
+      </c>
+      <c r="H95" t="s">
         <v>124</v>
       </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I95" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>387</v>
+      </c>
+      <c r="G96" t="s">
+        <v>388</v>
+      </c>
+      <c r="H96" t="s">
+        <v>389</v>
+      </c>
+      <c r="I96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="b">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>391</v>
+      </c>
+      <c r="G97" t="s">
+        <v>392</v>
+      </c>
+      <c r="H97" t="s">
+        <v>393</v>
+      </c>
+      <c r="I97" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>395</v>
+      </c>
+      <c r="G98" t="s">
+        <v>396</v>
+      </c>
+      <c r="H98" t="s">
+        <v>397</v>
+      </c>
+      <c r="I98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>399</v>
+      </c>
+      <c r="G99" t="s">
+        <v>400</v>
+      </c>
+      <c r="H99" t="s">
+        <v>401</v>
+      </c>
+      <c r="I99" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="b">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>403</v>
+      </c>
+      <c r="G100" t="s">
+        <v>404</v>
+      </c>
+      <c r="H100" t="s">
+        <v>405</v>
+      </c>
+      <c r="I100" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="b">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>407</v>
+      </c>
+      <c r="G101" t="s">
+        <v>390</v>
+      </c>
+      <c r="H101" t="s">
+        <v>389</v>
+      </c>
+      <c r="I101" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>270</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>408</v>
+      </c>
+      <c r="G102" t="s">
+        <v>409</v>
+      </c>
+      <c r="H102" t="s">
+        <v>410</v>
+      </c>
+      <c r="I102" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="b">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
+        <v>269</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>412</v>
+      </c>
+      <c r="G103" t="s">
+        <v>413</v>
+      </c>
+      <c r="H103" t="s">
+        <v>414</v>
+      </c>
+      <c r="I103" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>269</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>416</v>
+      </c>
+      <c r="G104" t="s">
+        <v>417</v>
+      </c>
+      <c r="H104" t="s">
+        <v>418</v>
+      </c>
+      <c r="I104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>269</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>419</v>
+      </c>
+      <c r="G105" t="s">
+        <v>420</v>
+      </c>
+      <c r="H105" t="s">
+        <v>421</v>
+      </c>
+      <c r="I105" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="b">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>423</v>
+      </c>
+      <c r="G106" t="s">
+        <v>424</v>
+      </c>
+      <c r="H106" t="s">
+        <v>425</v>
+      </c>
+      <c r="I106" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="b">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>137</v>
+      </c>
+      <c r="G107" t="s">
+        <v>362</v>
+      </c>
+      <c r="H107" t="s">
+        <v>140</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="b">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G108" t="s">
+        <v>362</v>
+      </c>
+      <c r="H108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I108" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="b">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>407</v>
+      </c>
+      <c r="G109" t="s">
+        <v>426</v>
+      </c>
+      <c r="H109" t="s">
+        <v>427</v>
+      </c>
+      <c r="I109" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="b">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>429</v>
+      </c>
+      <c r="G110" t="s">
+        <v>430</v>
+      </c>
+      <c r="H110" t="s">
+        <v>431</v>
+      </c>
+      <c r="I110" t="s">
         <v>106</v>
       </c>
-      <c r="F21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="b">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>137</v>
+      </c>
+      <c r="G111" t="s">
+        <v>136</v>
+      </c>
+      <c r="H111" t="s">
+        <v>134</v>
+      </c>
+      <c r="I111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="b">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>432</v>
+      </c>
+      <c r="G112" t="s">
+        <v>141</v>
+      </c>
+      <c r="H112" t="s">
+        <v>140</v>
+      </c>
+      <c r="I112" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="b">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>433</v>
+      </c>
+      <c r="G113" t="s">
+        <v>434</v>
+      </c>
+      <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="b">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>435</v>
+      </c>
+      <c r="G114" t="s">
+        <v>436</v>
+      </c>
+      <c r="H114" t="s">
+        <v>437</v>
+      </c>
+      <c r="I114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="b">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>438</v>
+      </c>
+      <c r="G115" t="s">
+        <v>439</v>
+      </c>
+      <c r="H115" t="s">
+        <v>440</v>
+      </c>
+      <c r="I115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="b">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>390</v>
+      </c>
+      <c r="G116" t="s">
+        <v>389</v>
+      </c>
+      <c r="H116" t="s">
+        <v>387</v>
+      </c>
+      <c r="I116" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="b">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>407</v>
+      </c>
+      <c r="G117" t="s">
+        <v>390</v>
+      </c>
+      <c r="H117" t="s">
+        <v>389</v>
+      </c>
+      <c r="I117" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="b">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>441</v>
+      </c>
+      <c r="G118" t="s">
+        <v>307</v>
+      </c>
+      <c r="H118" t="s">
+        <v>442</v>
+      </c>
+      <c r="I118" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="b">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>443</v>
+      </c>
+      <c r="G119" t="s">
+        <v>444</v>
+      </c>
+      <c r="H119" t="s">
+        <v>445</v>
+      </c>
+      <c r="I119" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="b">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" t="s">
+        <v>268</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>447</v>
+      </c>
+      <c r="G120" t="s">
+        <v>448</v>
+      </c>
+      <c r="H120" t="s">
+        <v>449</v>
+      </c>
+      <c r="I120" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="b">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>400</v>
+      </c>
+      <c r="G121" t="s">
+        <v>451</v>
+      </c>
+      <c r="H121" t="s">
+        <v>452</v>
+      </c>
+      <c r="I121" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="b">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>454</v>
+      </c>
+      <c r="G122" t="s">
+        <v>449</v>
+      </c>
+      <c r="H122" t="s">
+        <v>412</v>
+      </c>
+      <c r="I122" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="b">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>390</v>
+      </c>
+      <c r="G123" t="s">
+        <v>389</v>
+      </c>
+      <c r="H123" t="s">
+        <v>387</v>
+      </c>
+      <c r="I123" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="b">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>456</v>
+      </c>
+      <c r="G124" t="s">
+        <v>457</v>
+      </c>
+      <c r="H124" t="s">
+        <v>458</v>
+      </c>
+      <c r="I124" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="b">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>460</v>
+      </c>
+      <c r="G125" t="s">
+        <v>461</v>
+      </c>
+      <c r="H125" t="s">
+        <v>462</v>
+      </c>
+      <c r="I125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="b">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
+        <v>464</v>
+      </c>
+      <c r="G126" t="s">
+        <v>465</v>
+      </c>
+      <c r="H126" t="s">
+        <v>466</v>
+      </c>
+      <c r="I126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="b">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>467</v>
+      </c>
+      <c r="G127" t="s">
+        <v>468</v>
+      </c>
+      <c r="H127" t="s">
+        <v>469</v>
+      </c>
+      <c r="I127" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="b">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" t="s">
+        <v>269</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>471</v>
+      </c>
+      <c r="G128" t="s">
+        <v>472</v>
+      </c>
+      <c r="H128" t="s">
+        <v>473</v>
+      </c>
+      <c r="I128" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="b">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>471</v>
+      </c>
+      <c r="G129" t="s">
+        <v>475</v>
+      </c>
+      <c r="H129" t="s">
+        <v>476</v>
+      </c>
+      <c r="I129" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="b">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" t="s">
+        <v>271</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>477</v>
+      </c>
+      <c r="G130" t="s">
+        <v>478</v>
+      </c>
+      <c r="H130" t="s">
+        <v>479</v>
+      </c>
+      <c r="I130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="b">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>480</v>
+      </c>
+      <c r="G131" t="s">
+        <v>481</v>
+      </c>
+      <c r="H131" t="s">
+        <v>482</v>
+      </c>
+      <c r="I131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="b">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>483</v>
+      </c>
+      <c r="G132" t="s">
+        <v>484</v>
+      </c>
+      <c r="H132" t="s">
+        <v>485</v>
+      </c>
+      <c r="I132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="b">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
+        <v>458</v>
+      </c>
+      <c r="G133" t="s">
+        <v>486</v>
+      </c>
+      <c r="H133" t="s">
+        <v>63</v>
+      </c>
+      <c r="I133" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="b">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>240</v>
+      </c>
+      <c r="C134" t="s">
+        <v>270</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>457</v>
+      </c>
+      <c r="G134" t="s">
+        <v>487</v>
+      </c>
+      <c r="H134" t="s">
+        <v>63</v>
+      </c>
+      <c r="I134" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="b">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" t="s">
+        <v>271</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>63</v>
+      </c>
+      <c r="G135" t="s">
+        <v>459</v>
+      </c>
+      <c r="H135" t="s">
+        <v>486</v>
+      </c>
+      <c r="I135" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="b">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>242</v>
+      </c>
+      <c r="C136" t="s">
+        <v>271</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>63</v>
+      </c>
+      <c r="G136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H136" t="s">
+        <v>459</v>
+      </c>
+      <c r="I136" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="b">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>63</v>
+      </c>
+      <c r="G137" t="s">
+        <v>457</v>
+      </c>
+      <c r="H137" t="s">
+        <v>459</v>
+      </c>
+      <c r="I137" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="b">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>244</v>
+      </c>
+      <c r="C138" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>61</v>
+      </c>
+      <c r="G138" t="s">
+        <v>459</v>
+      </c>
+      <c r="H138" t="s">
+        <v>457</v>
+      </c>
+      <c r="I138" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="b">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>489</v>
+      </c>
+      <c r="G139" t="s">
+        <v>487</v>
+      </c>
+      <c r="H139" t="s">
+        <v>63</v>
+      </c>
+      <c r="I139" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="b">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>246</v>
+      </c>
+      <c r="C140" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>490</v>
+      </c>
+      <c r="G140" t="s">
+        <v>489</v>
+      </c>
+      <c r="H140" t="s">
+        <v>459</v>
+      </c>
+      <c r="I140" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="b">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>247</v>
+      </c>
+      <c r="C141" t="s">
+        <v>270</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>491</v>
+      </c>
+      <c r="G141" t="s">
+        <v>492</v>
+      </c>
+      <c r="H141" t="s">
+        <v>482</v>
+      </c>
+      <c r="I141" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="b">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>248</v>
+      </c>
+      <c r="C142" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>493</v>
+      </c>
+      <c r="G142" t="s">
+        <v>494</v>
+      </c>
+      <c r="H142" t="s">
+        <v>495</v>
+      </c>
+      <c r="I142" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="b">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>249</v>
+      </c>
+      <c r="C143" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>496</v>
+      </c>
+      <c r="G143" t="s">
+        <v>497</v>
+      </c>
+      <c r="H143" t="s">
+        <v>498</v>
+      </c>
+      <c r="I143" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="b">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" t="s">
+        <v>271</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>500</v>
+      </c>
+      <c r="G144" t="s">
+        <v>501</v>
+      </c>
+      <c r="H144" t="s">
+        <v>482</v>
+      </c>
+      <c r="I144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="b">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>251</v>
+      </c>
+      <c r="C145" t="s">
+        <v>270</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>134</v>
+      </c>
+      <c r="G145" t="s">
+        <v>361</v>
+      </c>
+      <c r="H145" t="s">
+        <v>137</v>
+      </c>
+      <c r="I145" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="b">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>252</v>
+      </c>
+      <c r="C146" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>137</v>
+      </c>
+      <c r="G146" t="s">
+        <v>136</v>
+      </c>
+      <c r="H146" t="s">
+        <v>134</v>
+      </c>
+      <c r="I146" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="b">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147" t="s">
+        <v>271</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>502</v>
+      </c>
+      <c r="G147" t="s">
+        <v>503</v>
+      </c>
+      <c r="H147" t="s">
+        <v>504</v>
+      </c>
+      <c r="I147" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="b">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" t="s">
+        <v>270</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>506</v>
+      </c>
+      <c r="G148" t="s">
+        <v>507</v>
+      </c>
+      <c r="H148" t="s">
+        <v>508</v>
+      </c>
+      <c r="I148" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="b">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" t="s">
+        <v>270</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>509</v>
+      </c>
+      <c r="G149" t="s">
+        <v>510</v>
+      </c>
+      <c r="H149" t="s">
+        <v>511</v>
+      </c>
+      <c r="I149" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="b">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" t="s">
+        <v>269</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>512</v>
+      </c>
+      <c r="G150" t="s">
+        <v>513</v>
+      </c>
+      <c r="H150" t="s">
+        <v>282</v>
+      </c>
+      <c r="I150" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="b">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>257</v>
+      </c>
+      <c r="C151" t="s">
+        <v>270</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>514</v>
+      </c>
+      <c r="G151" t="s">
+        <v>515</v>
+      </c>
+      <c r="H151" t="s">
+        <v>516</v>
+      </c>
+      <c r="I151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="b">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>258</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>517</v>
+      </c>
+      <c r="G152" t="s">
+        <v>518</v>
+      </c>
+      <c r="H152" t="s">
+        <v>341</v>
+      </c>
+      <c r="I152" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="b">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>259</v>
+      </c>
+      <c r="C153" t="s">
+        <v>269</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>520</v>
+      </c>
+      <c r="G153" t="s">
+        <v>521</v>
+      </c>
+      <c r="H153" t="s">
+        <v>447</v>
+      </c>
+      <c r="I153" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="b">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>260</v>
+      </c>
+      <c r="C154" t="s">
+        <v>268</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>523</v>
+      </c>
+      <c r="G154" t="s">
+        <v>524</v>
+      </c>
+      <c r="H154" t="s">
+        <v>525</v>
+      </c>
+      <c r="I154" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="b">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>261</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>1920</v>
+      </c>
+      <c r="G155">
+        <v>1930</v>
+      </c>
+      <c r="H155">
+        <v>1940</v>
+      </c>
+      <c r="I155">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="b">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>262</v>
+      </c>
+      <c r="C156" t="s">
+        <v>270</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>270</v>
+      </c>
+      <c r="G156" t="s">
+        <v>527</v>
+      </c>
+      <c r="H156" t="s">
+        <v>269</v>
+      </c>
+      <c r="I156" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="b">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>263</v>
+      </c>
+      <c r="C157" t="s">
+        <v>270</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>528</v>
+      </c>
+      <c r="G157" t="s">
+        <v>345</v>
+      </c>
+      <c r="H157" t="s">
+        <v>529</v>
+      </c>
+      <c r="I157" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="b">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>264</v>
+      </c>
+      <c r="C158" t="s">
+        <v>269</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>531</v>
+      </c>
+      <c r="G158" t="s">
+        <v>428</v>
+      </c>
+      <c r="H158" t="s">
+        <v>532</v>
+      </c>
+      <c r="I158" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="b">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>265</v>
+      </c>
+      <c r="C159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>300</v>
+      </c>
+      <c r="G159">
+        <v>400</v>
+      </c>
+      <c r="H159">
+        <v>200</v>
+      </c>
+      <c r="I159">
         <v>100</v>
       </c>
-      <c r="H22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="b">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="b">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="b">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="b">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="b">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="b">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>266</v>
+      </c>
+      <c r="C160" t="s">
+        <v>271</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>533</v>
+      </c>
+      <c r="G160" t="s">
+        <v>534</v>
+      </c>
+      <c r="H160" t="s">
+        <v>535</v>
+      </c>
+      <c r="I160" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="b">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>267</v>
+      </c>
+      <c r="C161" t="s">
+        <v>268</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>432</v>
+      </c>
+      <c r="G161" t="s">
+        <v>137</v>
+      </c>
+      <c r="H161" t="s">
+        <v>138</v>
+      </c>
+      <c r="I161" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I162" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/middlewares/excelFile.xlsx
+++ b/src/middlewares/excelFile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyz\Documents\cbt\cbt-new\computer-based-assessment\excel examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alikali Ojonugwa\Documents\React-Projectx\COMPUTER_BASED-ASSESSMENT\cbt\excel examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71E75B-D213-456B-88DA-BB822C1F73C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1643,7 +1644,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1963,24 +1964,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E161"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
